--- a/hedtools/examples/data/hed_tag_def_example.xlsx
+++ b/hedtools/examples/data/hed_tag_def_example.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Vehicle undergoes a perturbation to left.</t>
   </si>
   <si>
-    <t xml:space="preserve">Event/Sensory event, (Participant/Cognitive state/Awake ~ Participant/Trait/Age/15 ~ Item/Sound/Siren, Item/Object/Manmade/Vehicle, Attribute/Sensory/Visual/Color/RGB color/RGB Red/100), (Definition/ExampleFileDef, Organizational/ExampleFileOrg, (Item/ExampleFileTag))</t>
+    <t xml:space="preserve">Event/Sensory event, (Participant/Cognitive state/Awake ~ Participant/Trait/Age/15 ~ Item/Sound/Siren, Item/Object/Manmade/Vehicle, Attribute/Sensory/Visual/Color/RGB color/RGB Red/100), (Definition/ExampleFileDef, (Item/ExampleFileTag))</t>
   </si>
   <si>
     <t xml:space="preserve">PerturbRight</t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Subject starts to respond to perturbation by steering vehicle back to center of the lane.</t>
   </si>
   <si>
-    <t xml:space="preserve">Event/Sensory event, (Participant/Cognitive state/Awake ~ Participant/Trait/Age/15 ~ Item/Sound/Siren, Item/Object/Manmade/Vehicle, Attribute/Sensory/Visual/Color/RGB color/RGB Red/100), Label-def/ExampleFileDef</t>
+    <t xml:space="preserve">Event/Sensory event, (Participant/Cognitive state/Awake ~ Participant/Trait/Age/15 ~ Item/Sound/Siren, Item/Object/Manmade/Vehicle, Attribute/Sensory/Visual/Color/RGB color/RGB Red/100), def/ExampleFileDef</t>
   </si>
   <si>
     <t xml:space="preserve">ResponseOffset</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Subject completes response to perturbation having steered the vehicle back to the center of the lane.</t>
   </si>
   <si>
-    <t xml:space="preserve">Event/Sensory event, (Participant/Cognitive state/Awake ~ Participant/Trait/Age/15 ~ Item/Sound/Siren, Item/Object/Manmade/Vehicle, Attribute/Sensory/Visual/Color/RGB color/RGB Red/100), Label-def/ExampleDef</t>
+    <t xml:space="preserve">Event/Sensory event, (Participant/Cognitive state/Awake ~ Participant/Trait/Age/15 ~ Item/Sound/Siren, Item/Object/Manmade/Vehicle, Attribute/Sensory/Visual/Color/RGB color/RGB Red/100), def/ExampleDef</t>
   </si>
 </sst>
 </file>
@@ -196,7 +196,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -222,7 +222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>251</v>
       </c>
